--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34129.4747541871</v>
+        <v>6791452.434211392</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34129.4747541871</v>
+        <v>6791452.434211392</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16011.2126644982</v>
+        <v>966878.3676497948</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16011.2126644982</v>
+        <v>966878.3676497948</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190180989.935446</v>
+        <v>49253878.70043538</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11384.66057895633</v>
+        <v>1254610.6565296</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21087.71022026994</v>
+        <v>2230627.86278736</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30790.75986158353</v>
+        <v>3206645.069045122</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41001.37485097017</v>
+        <v>4150190.542160167</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51211.989840358</v>
+        <v>5093736.015275151</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61058.95766203683</v>
+        <v>6051778.769388285</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70926.13226852161</v>
+        <v>7013842.67367805</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80793.30687500589</v>
+        <v>7975906.577968094</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90830.63816769702</v>
+        <v>8920582.859862121</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100886.9626755793</v>
+        <v>9869038.79157969</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110942.8927307453</v>
+        <v>10817416.22720623</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120999.2172386281</v>
+        <v>11765872.15892383</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131055.5417465106</v>
+        <v>12714328.09064138</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141111.8662543948</v>
+        <v>13662784.02235864</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151167.8446858381</v>
+        <v>14611239.95407596</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27064,7 +27064,7 @@
         <v>245.9999999998862</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>41.99999999986483</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
